--- a/datamining/final_data/tfidf1962_nltk.xlsx
+++ b/datamining/final_data/tfidf1962_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FN39"/>
+  <dimension ref="A1:EM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,830 +452,695 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>creative-writing</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>helping</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>speech</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ways</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>young-children</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>improved</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>writing</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>genesis</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ideas</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>aptitudes</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>attributes</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>interests</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>blind</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>born</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>developmental</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>experimental</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>holds</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>implications</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>acceleration</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>high-school</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>reactions</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>superior</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>university-faculty</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>between</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>individual</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>intelligence-test</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>kindergarten</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>possible</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>pupils</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>relationship</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>teacher-judged</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>emeritus</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>achieving</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>dc</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>mcclelland</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>society</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>grades</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>signs</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>underachieving</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>burdens</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>identifying</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>non-test</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>dehaan</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>havighurst</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>rj</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>potentiality</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>etiology</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>conceptual</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>creative-thinking</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>growth</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>trends</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>hypothesis</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>interest</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>tylers</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>enrichment</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>chance</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>left</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>must</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>ep</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>guiding</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>chooses</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>deliberately</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>underachiever</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>informal</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>non-structured</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>working</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>7th</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>annual</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>contest</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>essay</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>me</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>prize</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>taught</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>which</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>winning</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>always</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>know</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>themselves</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>concepts</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>research</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>community</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>resources</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>awareness</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>childs</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>his</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>potentials</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>promoting</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>intelligence</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>mandate</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>junior-high</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>remember</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>speyer</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>american-view</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>british-system</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>renewed</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>zest</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>aware</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>grandparents</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>dear</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>readers</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>sos</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>axiomatic</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>ward</t>
         </is>
@@ -1292,34 +1157,34 @@
         <v>2377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1709,87 +1574,6 @@
         <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,34 +1606,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2221,87 +2005,6 @@
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2331,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2346,34 +2049,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -2733,87 +2436,6 @@
         <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2831,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2846,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2870,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2888,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -3245,87 +2867,6 @@
         <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3391,46 +2932,46 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3757,87 +3298,6 @@
         <v>0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3858,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3870,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -3894,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -3903,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -3915,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3924,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3945,19 +3405,19 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -4269,87 +3729,6 @@
         <v>0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -4406,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -4448,55 +3827,55 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -4781,87 +4160,6 @@
         <v>0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4879,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4918,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -4981,70 +4279,70 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -5293,87 +4591,6 @@
         <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5520,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AX10" t="n">
         <v>0</v>
@@ -5559,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -5805,87 +5022,6 @@
         <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5942,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -6038,22 +5174,22 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
@@ -6077,22 +5213,22 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
@@ -6317,87 +5453,6 @@
         <v>0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6430,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -6568,13 +5623,13 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BG12" t="n">
         <v>0</v>
@@ -6607,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -6829,87 +5884,6 @@
         <v>0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6930,10 +5904,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6942,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -6966,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -7089,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -7131,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
@@ -7341,87 +6315,6 @@
         <v>0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7442,25 +6335,25 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="J14" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7478,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -7604,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -7646,13 +6539,13 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
@@ -7853,87 +6746,6 @@
         <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7969,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -7984,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -8089,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8098,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
@@ -8125,19 +6937,19 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
@@ -8167,19 +6979,19 @@
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
@@ -8365,87 +7177,6 @@
         <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8556,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -8652,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
@@ -8694,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
@@ -8877,87 +7608,6 @@
         <v>0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8990,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9164,16 +7814,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BQ17" t="n">
         <v>0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BT17" t="n">
         <v>0</v>
@@ -9206,16 +7856,16 @@
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -9389,87 +8039,6 @@
         <v>0</v>
       </c>
       <c r="EM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9487,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -9688,13 +8257,13 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -9730,13 +8299,13 @@
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -9901,87 +8470,6 @@
         <v>0</v>
       </c>
       <c r="EM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10002,16 +8490,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -10038,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -10176,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="BL19" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BM19" t="n">
         <v>0</v>
@@ -10209,16 +8697,16 @@
         <v>0</v>
       </c>
       <c r="BW19" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="BX19" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="BY19" t="n">
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
@@ -10251,10 +8739,10 @@
         <v>0</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="CM19" t="n">
         <v>0</v>
@@ -10413,87 +8901,6 @@
         <v>0</v>
       </c>
       <c r="EM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10511,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -10526,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10616,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -10727,22 +9134,22 @@
         <v>0</v>
       </c>
       <c r="BY20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CA20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CB20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CC20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CD20" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -10769,22 +9176,22 @@
         <v>0</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
@@ -10925,87 +9332,6 @@
         <v>0</v>
       </c>
       <c r="EM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11023,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -11035,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -11059,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -11077,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -11107,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -11134,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -11257,10 +9583,10 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CF21" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CG21" t="n">
         <v>0</v>
@@ -11299,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
         <v>0</v>
@@ -11437,87 +9763,6 @@
         <v>0</v>
       </c>
       <c r="EM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11595,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -11616,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -11628,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -11817,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="CU22" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="CV22" t="n">
         <v>0</v>
@@ -11949,87 +10194,6 @@
         <v>0</v>
       </c>
       <c r="EM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12074,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -12173,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
@@ -12287,19 +10451,19 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CH23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CK23" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CL23" t="n">
         <v>0</v>
@@ -12332,19 +10496,19 @@
         <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -12461,87 +10625,6 @@
         <v>0</v>
       </c>
       <c r="EM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12697,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AZ24" t="n">
         <v>0</v>
@@ -12706,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
@@ -12736,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
@@ -12745,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
@@ -12802,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="CH24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CI24" t="n">
         <v>0</v>
@@ -12814,16 +10897,16 @@
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="CM24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -12847,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="CW24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CX24" t="n">
         <v>0</v>
@@ -12859,16 +10942,16 @@
         <v>0</v>
       </c>
       <c r="DA24" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DB24" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DC24" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="n">
         <v>0</v>
@@ -12973,87 +11056,6 @@
         <v>0</v>
       </c>
       <c r="EM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13110,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -13197,13 +11199,13 @@
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -13242,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="BK25" t="n">
         <v>0</v>
@@ -13338,22 +11340,22 @@
         <v>0</v>
       </c>
       <c r="CP25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CR25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CS25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CT25" t="n">
         <v>0</v>
       </c>
       <c r="CU25" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CV25" t="n">
         <v>0</v>
@@ -13383,25 +11385,25 @@
         <v>0</v>
       </c>
       <c r="DE25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DG25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DH25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DI25" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DK25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DL25" t="n">
         <v>0</v>
@@ -13485,87 +11487,6 @@
         <v>0</v>
       </c>
       <c r="EM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13586,10 +11507,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -13622,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -13709,13 +11630,13 @@
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="n">
         <v>0</v>
@@ -13748,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BI26" t="n">
         <v>0</v>
@@ -13862,16 +11783,16 @@
         <v>0</v>
       </c>
       <c r="CT26" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="CU26" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CV26" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CW26" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CX26" t="n">
         <v>0</v>
@@ -13916,16 +11837,16 @@
         <v>0</v>
       </c>
       <c r="DL26" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DM26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DN26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DO26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DP26" t="n">
         <v>0</v>
@@ -13997,87 +11918,6 @@
         <v>0</v>
       </c>
       <c r="EM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14098,10 +11938,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -14110,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -14134,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -14155,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -14176,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -14440,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="DP27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="DQ27" t="n">
         <v>0</v>
@@ -14509,87 +12349,6 @@
         <v>0</v>
       </c>
       <c r="EM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14619,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -14646,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -14712,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
         <v>0</v>
@@ -14739,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="AX28" t="n">
         <v>0</v>
@@ -14772,13 +12531,13 @@
         <v>0</v>
       </c>
       <c r="BH28" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BI28" t="n">
         <v>0</v>
       </c>
       <c r="BJ28" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BK28" t="n">
         <v>0</v>
@@ -14898,31 +12657,31 @@
         <v>0</v>
       </c>
       <c r="CX28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CY28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CZ28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DA28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DB28" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="DC28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DD28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DE28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DF28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DG28" t="n">
         <v>0</v>
@@ -14955,40 +12714,40 @@
         <v>0</v>
       </c>
       <c r="DQ28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DR28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DS28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DT28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DU28" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="DV28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DW28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DX28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DY28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="EA28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="EB28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="EC28" t="n">
         <v>0</v>
@@ -15021,87 +12780,6 @@
         <v>0</v>
       </c>
       <c r="EM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15122,10 +12800,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -15158,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -15437,13 +13115,13 @@
         <v>0</v>
       </c>
       <c r="DG29" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DH29" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DI29" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DJ29" t="n">
         <v>0</v>
@@ -15503,16 +13181,16 @@
         <v>0</v>
       </c>
       <c r="EC29" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="ED29" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EE29" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EF29" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EG29" t="n">
         <v>0</v>
@@ -15533,87 +13211,6 @@
         <v>0</v>
       </c>
       <c r="EM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15631,13 +13228,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G30" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -15709,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -15733,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
@@ -15751,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -15787,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BF30" t="n">
         <v>0</v>
@@ -15955,16 +13552,16 @@
         <v>0</v>
       </c>
       <c r="DI30" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DJ30" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DK30" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DL30" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DM30" t="n">
         <v>0</v>
@@ -16027,16 +13624,16 @@
         <v>0</v>
       </c>
       <c r="EG30" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EH30" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EI30" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EJ30" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EK30" t="n">
         <v>0</v>
@@ -16045,87 +13642,6 @@
         <v>0</v>
       </c>
       <c r="EM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16158,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -16182,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -16479,13 +13995,13 @@
         <v>0</v>
       </c>
       <c r="DM31" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DN31" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DO31" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DP31" t="n">
         <v>0</v>
@@ -16551,93 +14067,12 @@
         <v>0</v>
       </c>
       <c r="EK31" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="EL31" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="EM31" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="EN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16658,10 +14093,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G32" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -16670,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -16694,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -16898,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="CH32" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="CI32" t="n">
         <v>0</v>
@@ -16943,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="CW32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CX32" t="n">
         <v>0</v>
@@ -17000,16 +14435,16 @@
         <v>0</v>
       </c>
       <c r="DP32" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="DQ32" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DR32" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="DS32" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="DT32" t="n">
         <v>0</v>
@@ -17069,87 +14504,6 @@
         <v>0</v>
       </c>
       <c r="EM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN32" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EO32" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EP32" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EQ32" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="ER32" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="ES32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17179,10 +14533,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -17206,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -17470,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="DB33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DC33" t="n">
         <v>0</v>
@@ -17524,10 +14878,10 @@
         <v>0</v>
       </c>
       <c r="DT33" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="DU33" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="DV33" t="n">
         <v>0</v>
@@ -17581,87 +14935,6 @@
         <v>0</v>
       </c>
       <c r="EM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER33" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES33" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="ET33" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="EU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17682,10 +14955,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -17718,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -17772,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -17784,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
@@ -18042,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="DV34" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="DW34" t="n">
         <v>0</v>
@@ -18093,87 +15366,6 @@
         <v>0</v>
       </c>
       <c r="EM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU34" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="EV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18260,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -18278,10 +15470,10 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -18305,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -18323,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AX35" t="n">
         <v>0</v>
@@ -18557,16 +15749,16 @@
         <v>0</v>
       </c>
       <c r="DW35" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DX35" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DY35" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DZ35" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EA35" t="n">
         <v>0</v>
@@ -18605,87 +15797,6 @@
         <v>0</v>
       </c>
       <c r="EM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER35" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES35" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV35" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EW35" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EX35" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EY35" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="EZ35" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18718,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -18742,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -18766,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -18787,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -18796,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
         <v>0</v>
@@ -18835,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AX36" t="n">
         <v>0</v>
@@ -19081,16 +16192,16 @@
         <v>0</v>
       </c>
       <c r="EA36" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EB36" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EC36" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ED36" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EE36" t="n">
         <v>0</v>
@@ -19117,87 +16228,6 @@
         <v>0</v>
       </c>
       <c r="EM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER36" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES36" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA36" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FB36" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FC36" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FD36" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19218,10 +16248,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G37" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -19230,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -19254,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -19563,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="DQ37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="DR37" t="n">
         <v>0</v>
@@ -19605,13 +16635,13 @@
         <v>0</v>
       </c>
       <c r="EE37" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EF37" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EG37" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EH37" t="n">
         <v>0</v>
@@ -19629,87 +16659,6 @@
         <v>0</v>
       </c>
       <c r="EM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO37" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER37" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES37" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE37" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FF37" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FG37" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FH37" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20126,13 +17075,13 @@
         <v>0</v>
       </c>
       <c r="EH38" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EI38" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EJ38" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EK38" t="n">
         <v>0</v>
@@ -20141,87 +17090,6 @@
         <v>0</v>
       </c>
       <c r="EM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER38" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES38" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI38" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="FJ38" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="FK38" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="FL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20242,10 +17110,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G39" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -20278,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -20371,13 +17239,13 @@
         <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AX39" t="n">
         <v>0</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AZ39" t="n">
         <v>0</v>
@@ -20386,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="BB39" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BC39" t="n">
         <v>0</v>
@@ -20416,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="BL39" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="BM39" t="n">
         <v>0</v>
@@ -20425,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="BO39" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BP39" t="n">
         <v>0</v>
@@ -20458,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="BZ39" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CA39" t="n">
         <v>0</v>
@@ -20518,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="CT39" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CU39" t="n">
         <v>0</v>
@@ -20572,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="DL39" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DM39" t="n">
         <v>0</v>
@@ -20647,94 +17515,13 @@
         <v>0</v>
       </c>
       <c r="EK39" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EL39" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER39" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES39" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL39" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FM39" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FN39" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
